--- a/generated_docs/WR_89804587_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Jacob Henderson</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>837-1</t>
+          <t>#NO MATCH-1</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89804587_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I75"/>
+  <dimension ref="A2:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15707.75</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>833.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="H22" s="16" t="n">
-        <v>2505.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1092,11 +1092,11 @@
         </is>
       </c>
       <c r="F29" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E30" s="12" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1160,22 +1160,22 @@
         </is>
       </c>
       <c r="F31" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-96-D34</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E32" s="12" t="inlineStr">
@@ -1194,11 +1194,11 @@
         </is>
       </c>
       <c r="F32" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="13" t="inlineStr"/>
       <c r="H32" s="14" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>ANC-EXP-8-96-D34</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
         </is>
       </c>
       <c r="E33" s="9" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G33" s="10" t="inlineStr"/>
       <c r="H33" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E34" s="12" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G34" s="13" t="inlineStr"/>
       <c r="H34" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-D-S</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D35" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Deadend,Polymer</t>
         </is>
       </c>
       <c r="E35" s="9" t="inlineStr">
@@ -1296,22 +1296,22 @@
         </is>
       </c>
       <c r="F35" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="11" t="n">
-        <v>220.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B36" s="12" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-72-S58</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C36" s="12" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E36" s="12" t="inlineStr">
@@ -1330,22 +1330,22 @@
         </is>
       </c>
       <c r="F36" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="13" t="inlineStr"/>
       <c r="H36" s="14" t="n">
-        <v>1581.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-72-S58</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D37" s="9" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E37" s="9" t="inlineStr">
@@ -1364,17 +1364,17 @@
         </is>
       </c>
       <c r="F37" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B38" s="12" t="inlineStr">
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="F38" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>ANC-EXP-8-72-S58</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D39" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
         </is>
       </c>
       <c r="E39" s="9" t="inlineStr">
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="F39" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>ANC-EXP-8-72-S58</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D40" s="12" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
         </is>
       </c>
       <c r="E40" s="12" t="inlineStr">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="F40" s="13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>833.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>ANC-EXP-8-72-S58</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
         </is>
       </c>
       <c r="E41" s="9" t="inlineStr">
@@ -1500,206 +1500,206 @@
         </is>
       </c>
       <c r="F41" s="10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>595.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="inlineStr">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr"/>
+      <c r="H42" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr"/>
+      <c r="H44" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H42" s="16" t="n">
-        <v>8499.779999999999</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="inlineStr">
+      <c r="H46" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/17/2025)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C46" s="8" t="inlineStr">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D46" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E46" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G46" s="8" t="inlineStr">
+      <c r="G50" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H46" s="8" t="inlineStr">
+      <c r="H50" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="inlineStr">
-        <is>
-          <t>ARM-4SF-GN</t>
-        </is>
-      </c>
-      <c r="C47" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="9" t="inlineStr">
-        <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
-        </is>
-      </c>
-      <c r="E47" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="10" t="inlineStr"/>
-      <c r="H47" s="11" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B48" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S</t>
-        </is>
-      </c>
-      <c r="C48" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
-        </is>
-      </c>
-      <c r="E48" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" s="13" t="inlineStr"/>
-      <c r="H48" s="14" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>PIN-35-PTP</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
-        <is>
-          <t>Pin,35kV,Pole Top</t>
-        </is>
-      </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>188.34</v>
       </c>
     </row>
     <row r="51">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-D-S</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Deadend,Polymer</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="F55" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -1903,18 +1903,18 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -1937,18 +1937,18 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -1971,18 +1971,18 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2035,22 +2035,22 @@
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2069,17 +2069,17 @@
         </is>
       </c>
       <c r="F61" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2141,18 +2141,18 @@
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>INS-15-D-S</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>INS,15kV,Deadend,Polymer</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2205,22 +2205,22 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2239,22 +2239,22 @@
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2273,17 +2273,17 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
@@ -2311,18 +2311,18 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2345,18 +2345,18 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2379,18 +2379,18 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2409,22 +2409,22 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2443,22 +2443,22 @@
         </is>
       </c>
       <c r="F72" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2515,17 +2515,255 @@
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="inlineStr">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>ARM-4SF-GN</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H75" s="16" t="n">
-        <v>4702.57</v>
+      <c r="H82" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2537,14 +2775,14 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A46:G46"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A75:G75"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A82:G82"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89804587_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I82"/>
+  <dimension ref="A2:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>15707.75</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>833.7</v>
       </c>
     </row>
     <row r="22">
@@ -945,7 +941,7 @@
         </is>
       </c>
       <c r="H22" s="16" t="n">
-        <v>0</v>
+        <v>2505.4</v>
       </c>
     </row>
     <row r="25">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1069,7 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1092,11 +1088,11 @@
         </is>
       </c>
       <c r="F29" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -1117,7 +1113,7 @@
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E30" s="12" t="inlineStr">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1137,7 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1160,22 +1156,22 @@
         </is>
       </c>
       <c r="F31" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>ANC-EXP-8-96-D34</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
@@ -1185,7 +1181,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
         </is>
       </c>
       <c r="E32" s="12" t="inlineStr">
@@ -1194,11 +1190,11 @@
         </is>
       </c>
       <c r="F32" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13" t="inlineStr"/>
       <c r="H32" s="14" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1209,7 +1205,7 @@
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-96-D34</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
@@ -1219,7 +1215,7 @@
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E33" s="9" t="inlineStr">
@@ -1232,7 +1228,7 @@
       </c>
       <c r="G33" s="10" t="inlineStr"/>
       <c r="H33" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="34">
@@ -1243,7 +1239,7 @@
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E34" s="12" t="inlineStr">
@@ -1266,7 +1262,7 @@
       </c>
       <c r="G34" s="13" t="inlineStr"/>
       <c r="H34" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1273,7 @@
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
@@ -1287,7 +1283,7 @@
       </c>
       <c r="D35" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E35" s="9" t="inlineStr">
@@ -1296,22 +1292,22 @@
         </is>
       </c>
       <c r="F35" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="11" t="n">
-        <v>0</v>
+        <v>220.72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B36" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>ANC-EXP-8-72-S58</t>
         </is>
       </c>
       <c r="C36" s="12" t="inlineStr">
@@ -1321,7 +1317,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
         </is>
       </c>
       <c r="E36" s="12" t="inlineStr">
@@ -1330,22 +1326,22 @@
         </is>
       </c>
       <c r="F36" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="13" t="inlineStr"/>
       <c r="H36" s="14" t="n">
-        <v>0</v>
+        <v>1581.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ANC-EXP-8-72-S58</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="D37" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
         </is>
       </c>
       <c r="E37" s="9" t="inlineStr">
@@ -1364,17 +1360,17 @@
         </is>
       </c>
       <c r="F37" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B38" s="12" t="inlineStr">
@@ -1398,22 +1394,22 @@
         </is>
       </c>
       <c r="F38" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-72-S58</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
@@ -1423,7 +1419,7 @@
       </c>
       <c r="D39" s="9" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E39" s="9" t="inlineStr">
@@ -1432,11 +1428,11 @@
         </is>
       </c>
       <c r="F39" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1443,7 @@
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-72-S58</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
@@ -1457,7 +1453,7 @@
       </c>
       <c r="D40" s="12" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E40" s="12" t="inlineStr">
@@ -1466,22 +1462,22 @@
         </is>
       </c>
       <c r="F40" s="13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>0</v>
+        <v>833.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-72-S58</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1491,7 +1487,7 @@
       </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E41" s="9" t="inlineStr">
@@ -1500,206 +1496,206 @@
         </is>
       </c>
       <c r="F41" s="10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>0</v>
+        <v>595.5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
+      <c r="A42" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H42" s="16" t="n">
+        <v>8499.779999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/17/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>ARM-4SF-GN</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+        </is>
+      </c>
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10" t="inlineStr"/>
+      <c r="H47" s="11" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S</t>
+        </is>
+      </c>
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="13" t="inlineStr"/>
+      <c r="H48" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>PIN-35-PTP</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>Pin,35kV,Pole Top</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B44" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C44" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D44" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E44" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C45" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H46" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/17/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D50" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E50" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F50" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G50" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>188.34</v>
       </c>
     </row>
     <row r="51">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1716,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1733,7 +1729,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="52">
@@ -1744,7 +1740,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1750,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1763,22 +1759,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1797,22 +1793,22 @@
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1818,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,22 +1827,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1865,22 +1861,22 @@
         </is>
       </c>
       <c r="F55" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -1903,18 +1899,18 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -1924,7 +1920,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -1937,18 +1933,18 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -1958,7 +1954,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -1971,18 +1967,18 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1992,7 +1988,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2001,22 +1997,22 @@
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2026,7 +2022,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2035,22 +2031,22 @@
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2060,7 +2056,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2069,17 +2065,17 @@
         </is>
       </c>
       <c r="F61" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
@@ -2107,7 +2103,7 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="63">
@@ -2118,7 +2114,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>ARM-4SF-GN</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2128,7 +2124,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2141,18 +2137,18 @@
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2162,7 +2158,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2171,22 +2167,22 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2196,7 +2192,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2205,22 +2201,22 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2230,7 +2226,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2239,22 +2235,22 @@
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2264,7 +2260,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2273,17 +2269,17 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
@@ -2311,18 +2307,18 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>ARM-4SF-GN</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2332,7 +2328,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2345,18 +2341,18 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2366,7 +2362,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2379,18 +2375,18 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2396,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2409,22 +2405,22 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -2434,7 +2430,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2443,22 +2439,22 @@
         </is>
       </c>
       <c r="F72" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2468,7 +2464,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2477,22 +2473,22 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2502,7 +2498,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2515,255 +2511,17 @@
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>ARM-4SF-GN</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>ARM,4.5ft Sgl.Fiberglass,Gain</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer</t>
-        </is>
-      </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C77" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E77" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="10" t="inlineStr"/>
-      <c r="H77" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B78" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C78" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E78" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="13" t="inlineStr"/>
-      <c r="H78" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C79" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E79" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G79" s="10" t="inlineStr"/>
-      <c r="H79" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B80" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C80" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E80" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G80" s="13" t="inlineStr"/>
-      <c r="H80" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E81" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="10" t="inlineStr"/>
-      <c r="H81" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="15" t="inlineStr">
+      <c r="A75" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H82" s="16" t="n">
-        <v>0</v>
+      <c r="H75" s="16" t="n">
+        <v>4702.57</v>
       </c>
     </row>
   </sheetData>
@@ -2775,14 +2533,14 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A46:G46"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A75:G75"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A49:H49"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
